--- a/public/plot.xlsx
+++ b/public/plot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\reborn\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_House\Reborn_Fdu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0065C-2A87-4DCA-AD1D-B9AEBDC5860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063AE22-54A8-4F8D-9126-A34CDBC8A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="1319">
   <si>
     <t>职业发展：晋升路径+随机事件</t>
   </si>
@@ -6747,6 +6747,22 @@
   <si>
     <t>A诚信H</t>
     <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Punish </t>
+  </si>
+  <si>
+    <t>Punish</t>
   </si>
 </sst>
 </file>
@@ -7916,19 +7932,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8260,7 +8276,7 @@
   <dimension ref="A1:AH235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
@@ -8442,7 +8458,9 @@
       <c r="N2" s="108" t="s">
         <v>949</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="101" t="s">
+        <v>1314</v>
+      </c>
       <c r="P2" s="110" t="s">
         <v>950</v>
       </c>
@@ -8472,11 +8490,21 @@
         <v>952</v>
       </c>
       <c r="Z2" s="114"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
+      <c r="AA2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AC2" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD2" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE2" s="113" t="s">
+        <v>332</v>
+      </c>
       <c r="AF2" s="116"/>
       <c r="AG2" s="116" t="s">
         <v>325</v>
@@ -8551,20 +8579,20 @@
       <c r="Z3" s="112" t="s">
         <v>955</v>
       </c>
-      <c r="AA3" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB3" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC3" s="101" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD3" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE3" s="101" t="s">
-        <v>335</v>
+      <c r="AA3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AC3" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD3" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE3" s="113" t="s">
+        <v>322</v>
       </c>
       <c r="AF3" s="116"/>
       <c r="AG3" s="116" t="s">
@@ -8640,9 +8668,9 @@
       <c r="Z4" s="114"/>
       <c r="AA4" s="115"/>
       <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
       <c r="AF4" s="116"/>
       <c r="AG4" s="116"/>
       <c r="AH4" s="117"/>
@@ -21576,7 +21604,7 @@
   <customSheetViews>
     <customSheetView guid="{BCDA923B-10B4-45A3-AB4E-E599575D8D5B}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E128" xr:uid="{250B1CBA-EB35-4DBE-8B35-317508E0A0B5}"/>
+      <autoFilter ref="E1:E128" xr:uid="{CFAB7974-75F8-4959-A9BA-5E28C9C64204}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="35" type="noConversion"/>
@@ -21584,7 +21612,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z36:AE39 Z32:AE34 D1:D1048576 AF1:AF1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:X1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:X1048576 AC2:AE3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"I,II,III,IV,X,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z60:AE60 Z58:AE58 AH1:AH1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -23477,28 +23505,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="224" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="232" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="235" t="s">
+      <c r="B1" s="232" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="235" t="s">
+      <c r="C1" s="232" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="235" t="s">
+      <c r="D1" s="232" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="236" t="s">
+      <c r="E1" s="234" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="232" t="s">
+      <c r="F1" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="232" t="s">
+      <c r="G1" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="235" t="s">
+      <c r="H1" s="232" t="s">
         <v>290</v>
       </c>
       <c r="I1" s="233"/>
@@ -23506,14 +23534,14 @@
       <c r="K1" s="233"/>
       <c r="L1" s="233"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="232" t="s">
+      <c r="N1" s="235" t="s">
         <v>291</v>
       </c>
-      <c r="O1" s="232" t="s">
+      <c r="O1" s="235" t="s">
         <v>292</v>
       </c>
       <c r="P1" s="233"/>
-      <c r="Q1" s="232" t="s">
+      <c r="Q1" s="235" t="s">
         <v>293</v>
       </c>
       <c r="R1" s="233"/>
@@ -23522,7 +23550,7 @@
       <c r="U1" s="233"/>
       <c r="V1" s="233"/>
       <c r="W1" s="233"/>
-      <c r="X1" s="232" t="s">
+      <c r="X1" s="235" t="s">
         <v>294</v>
       </c>
       <c r="Y1" s="233"/>
@@ -23531,13 +23559,13 @@
       <c r="AB1" s="233"/>
       <c r="AC1" s="233"/>
       <c r="AD1" s="233"/>
-      <c r="AE1" s="234" t="s">
+      <c r="AE1" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="AF1" s="234" t="s">
+      <c r="AF1" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="AG1" s="234" t="s">
+      <c r="AG1" s="236" t="s">
         <v>297</v>
       </c>
     </row>
@@ -35914,21 +35942,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <dataValidations count="10">
